--- a/extras/CustomInterface/ExcelGenerado/datos.xlsx
+++ b/extras/CustomInterface/ExcelGenerado/datos.xlsx
@@ -530,10 +530,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -541,13 +541,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -578,7 +578,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -731,7 +731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -781,10 +781,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="C2" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -796,29 +796,6 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -886,16 +863,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -932,16 +909,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>

--- a/extras/CustomInterface/ExcelGenerado/datos.xlsx
+++ b/extras/CustomInterface/ExcelGenerado/datos.xlsx
@@ -592,7 +592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,35 +608,30 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>etype</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Iy</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Iy</t>
+          <t>Iz</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Iz</t>
+          <t>GJ</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>GJ</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Gamma</t>
         </is>
@@ -647,76 +642,21 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>400000</v>
       </c>
       <c r="C2" t="n">
-        <v>400000</v>
+        <v>100000</v>
       </c>
       <c r="D2" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="E2" t="n">
-        <v>30000</v>
+        <v>300000</v>
       </c>
       <c r="F2" t="n">
         <v>300000</v>
       </c>
       <c r="G2" t="n">
-        <v>300000</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>400000</v>
-      </c>
-      <c r="D3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="E3" t="n">
-        <v>30000</v>
-      </c>
-      <c r="F3" t="n">
-        <v>300000</v>
-      </c>
-      <c r="G3" t="n">
-        <v>300000</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>500000</v>
-      </c>
-      <c r="D4" t="n">
-        <v>100000</v>
-      </c>
-      <c r="E4" t="n">
-        <v>30000</v>
-      </c>
-      <c r="F4" t="n">
-        <v>300000</v>
-      </c>
-      <c r="G4" t="n">
-        <v>300000</v>
-      </c>
-      <c r="H4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -781,10 +721,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -860,10 +800,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -906,10 +846,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>

--- a/extras/CustomInterface/ExcelGenerado/datos.xlsx
+++ b/extras/CustomInterface/ExcelGenerado/datos.xlsx
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>400000</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
         <v>100000</v>

--- a/extras/CustomInterface/ExcelGenerado/datos.xlsx
+++ b/extras/CustomInterface/ExcelGenerado/datos.xlsx
@@ -645,13 +645,13 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
+        <v>400000</v>
+      </c>
+      <c r="D2" t="n">
         <v>100000</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>30000</v>
-      </c>
-      <c r="E2" t="n">
-        <v>300000</v>
       </c>
       <c r="F2" t="n">
         <v>300000</v>
